--- a/Results/UVC_mean_fluorescence_pvals_young skin_V1.xlsx
+++ b/Results/UVC_mean_fluorescence_pvals_young skin_V1.xlsx
@@ -425,10 +425,10 @@
         <v>4.94456080825791</v>
       </c>
       <c r="F2" t="n">
-        <v>0.989400919272522</v>
+        <v>0.98939414582441</v>
       </c>
       <c r="G2" t="n">
-        <v>0.999995978655535</v>
+        <v>0.99999598068226</v>
       </c>
     </row>
     <row r="3">
@@ -448,10 +448,10 @@
         <v>5.86442856445791</v>
       </c>
       <c r="F3" t="n">
-        <v>0.999995978655535</v>
+        <v>0.99999598068226</v>
       </c>
       <c r="G3" t="n">
-        <v>0.999995978655535</v>
+        <v>0.99999598068226</v>
       </c>
     </row>
     <row r="4">
@@ -471,10 +471,10 @@
         <v>7.63695299715791</v>
       </c>
       <c r="F4" t="n">
-        <v>0.823428450089435</v>
+        <v>0.82348906152032</v>
       </c>
       <c r="G4" t="n">
-        <v>0.999995978655535</v>
+        <v>0.99999598068226</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>7.40233497575791</v>
       </c>
       <c r="F5" t="n">
-        <v>0.879752615581113</v>
+        <v>0.879813204900592</v>
       </c>
       <c r="G5" t="n">
-        <v>0.999995978655535</v>
+        <v>0.99999598068226</v>
       </c>
     </row>
     <row r="6">
@@ -517,10 +517,10 @@
         <v>1.11826154029702</v>
       </c>
       <c r="F6" t="n">
-        <v>0.284229969964972</v>
+        <v>0.284297427074923</v>
       </c>
       <c r="G6" t="n">
-        <v>0.852689909894916</v>
+        <v>0.852892281224768</v>
       </c>
     </row>
     <row r="7">
@@ -540,10 +540,10 @@
         <v>2.26836125479702</v>
       </c>
       <c r="F7" t="n">
-        <v>0.838655419144799</v>
+        <v>0.838710234322164</v>
       </c>
       <c r="G7" t="n">
-        <v>0.999995978655535</v>
+        <v>0.99999598068226</v>
       </c>
     </row>
     <row r="8">
@@ -563,10 +563,10 @@
         <v>2.15230257989702</v>
       </c>
       <c r="F8" t="n">
-        <v>0.785369059293078</v>
+        <v>0.785294718684922</v>
       </c>
       <c r="G8" t="n">
-        <v>0.999995978655535</v>
+        <v>0.99999598068226</v>
       </c>
     </row>
     <row r="9">
@@ -586,10 +586,10 @@
         <v>3.71921491999702</v>
       </c>
       <c r="F9" t="n">
-        <v>0.994091860121472</v>
+        <v>0.994092499204428</v>
       </c>
       <c r="G9" t="n">
-        <v>0.999995978655535</v>
+        <v>0.99999598068226</v>
       </c>
     </row>
     <row r="10">
@@ -609,10 +609,10 @@
         <v>8.95179902935283</v>
       </c>
       <c r="F10" t="n">
-        <v>0.702617844317843</v>
+        <v>0.702616108128424</v>
       </c>
       <c r="G10" t="n">
-        <v>0.999995978655535</v>
+        <v>0.99999598068226</v>
       </c>
     </row>
     <row r="11">
@@ -632,10 +632,10 @@
         <v>14.7111604747528</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0068421824434316</v>
+        <v>0.00687460469432954</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0273687297737264</v>
+        <v>0.0274984187773182</v>
       </c>
     </row>
     <row r="12">
@@ -655,10 +655,10 @@
         <v>20.3139903240528</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0000053553160481723</v>
+        <v>0.00000755813099129199</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0000321318962890338</v>
+        <v>0.0000453487859477519</v>
       </c>
     </row>
     <row r="13">
@@ -678,10 +678,10 @@
         <v>20.7850936718528</v>
       </c>
       <c r="F13" t="n">
-        <v>0.00000262114071414299</v>
+        <v>0.00000531099186973361</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0000314536885697159</v>
+        <v>0.0000453487859477519</v>
       </c>
     </row>
   </sheetData>

--- a/Results/UVC_mean_fluorescence_pvals_young skin_V1.xlsx
+++ b/Results/UVC_mean_fluorescence_pvals_young skin_V1.xlsx
@@ -416,19 +416,19 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.8106807139</v>
+        <v>-1.2966612431</v>
       </c>
       <c r="D2" t="n">
-        <v>-6.56592223605791</v>
+        <v>-7.33257971608425</v>
       </c>
       <c r="E2" t="n">
-        <v>4.94456080825791</v>
+        <v>4.73925722988425</v>
       </c>
       <c r="F2" t="n">
-        <v>0.98939414582441</v>
+        <v>0.952100623564654</v>
       </c>
       <c r="G2" t="n">
-        <v>0.99999598068226</v>
+        <v>0.998885744847557</v>
       </c>
     </row>
     <row r="3">
@@ -439,19 +439,19 @@
         <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>0.109187042299999</v>
+        <v>-0.472246910500001</v>
       </c>
       <c r="D3" t="n">
-        <v>-5.64605447985791</v>
+        <v>-6.50816538348425</v>
       </c>
       <c r="E3" t="n">
-        <v>5.86442856445791</v>
+        <v>5.56367156248425</v>
       </c>
       <c r="F3" t="n">
-        <v>0.99999598068226</v>
+        <v>0.998885744847557</v>
       </c>
       <c r="G3" t="n">
-        <v>0.99999598068226</v>
+        <v>0.998885744847557</v>
       </c>
     </row>
     <row r="4">
@@ -462,19 +462,19 @@
         <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>1.881711475</v>
+        <v>1.032046008</v>
       </c>
       <c r="D4" t="n">
-        <v>-3.87353004715791</v>
+        <v>-5.00387246498425</v>
       </c>
       <c r="E4" t="n">
-        <v>7.63695299715791</v>
+        <v>7.06796448098425</v>
       </c>
       <c r="F4" t="n">
-        <v>0.82348906152032</v>
+        <v>0.97842747434348</v>
       </c>
       <c r="G4" t="n">
-        <v>0.99999598068226</v>
+        <v>0.998885744847557</v>
       </c>
     </row>
     <row r="5">
@@ -485,19 +485,19 @@
         <v>11</v>
       </c>
       <c r="C5" t="n">
-        <v>1.6470934536</v>
+        <v>1.0573510965</v>
       </c>
       <c r="D5" t="n">
-        <v>-4.10814806855791</v>
+        <v>-4.97856737648425</v>
       </c>
       <c r="E5" t="n">
-        <v>7.40233497575791</v>
+        <v>7.09326956948425</v>
       </c>
       <c r="F5" t="n">
-        <v>0.879813204900592</v>
+        <v>0.976492978845968</v>
       </c>
       <c r="G5" t="n">
-        <v>0.99999598068226</v>
+        <v>0.998885744847557</v>
       </c>
     </row>
     <row r="6">
@@ -508,19 +508,19 @@
         <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>-2.2008360735</v>
+        <v>-2.1141091599</v>
       </c>
       <c r="D6" t="n">
-        <v>-5.51993368729702</v>
+        <v>-5.44348155081401</v>
       </c>
       <c r="E6" t="n">
-        <v>1.11826154029702</v>
+        <v>1.21526323101401</v>
       </c>
       <c r="F6" t="n">
-        <v>0.284297427074923</v>
+        <v>0.319979598265584</v>
       </c>
       <c r="G6" t="n">
-        <v>0.852892281224768</v>
+        <v>0.959938794796751</v>
       </c>
     </row>
     <row r="7">
@@ -531,19 +531,19 @@
         <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.050736359</v>
+        <v>-1.3122898082</v>
       </c>
       <c r="D7" t="n">
-        <v>-4.36983397279702</v>
+        <v>-4.64166219911401</v>
       </c>
       <c r="E7" t="n">
-        <v>2.26836125479702</v>
+        <v>2.01708258271401</v>
       </c>
       <c r="F7" t="n">
-        <v>0.838710234322164</v>
+        <v>0.714136410670466</v>
       </c>
       <c r="G7" t="n">
-        <v>0.99999598068226</v>
+        <v>0.998885744847557</v>
       </c>
     </row>
     <row r="8">
@@ -554,19 +554,19 @@
         <v>10</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.1667950339</v>
+        <v>-1.4063230454</v>
       </c>
       <c r="D8" t="n">
-        <v>-4.48589264769702</v>
+        <v>-4.73569543631401</v>
       </c>
       <c r="E8" t="n">
-        <v>2.15230257989702</v>
+        <v>1.92304934551401</v>
       </c>
       <c r="F8" t="n">
-        <v>0.785294718684922</v>
+        <v>0.6646383228818</v>
       </c>
       <c r="G8" t="n">
-        <v>0.99999598068226</v>
+        <v>0.998885744847557</v>
       </c>
     </row>
     <row r="9">
@@ -577,19 +577,19 @@
         <v>11</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4001173062</v>
+        <v>0.400117306199999</v>
       </c>
       <c r="D9" t="n">
-        <v>-2.91898030759702</v>
+        <v>-2.92925508471401</v>
       </c>
       <c r="E9" t="n">
-        <v>3.71921491999702</v>
+        <v>3.72948969711401</v>
       </c>
       <c r="F9" t="n">
-        <v>0.994092499204428</v>
+        <v>0.9941624118913</v>
       </c>
       <c r="G9" t="n">
-        <v>0.99999598068226</v>
+        <v>0.998885744847557</v>
       </c>
     </row>
     <row r="10">
@@ -600,19 +600,19 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>2.5610997342</v>
+        <v>1.701374947</v>
       </c>
       <c r="D10" t="n">
-        <v>-3.82959956095284</v>
+        <v>-5.1561841126464</v>
       </c>
       <c r="E10" t="n">
-        <v>8.95179902935283</v>
+        <v>8.55893400664639</v>
       </c>
       <c r="F10" t="n">
-        <v>0.702616108128424</v>
+        <v>0.922919369977848</v>
       </c>
       <c r="G10" t="n">
-        <v>0.99999598068226</v>
+        <v>0.998885744847557</v>
       </c>
     </row>
     <row r="11">
@@ -623,19 +623,19 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>8.3204611796</v>
+        <v>7.269737673</v>
       </c>
       <c r="D11" t="n">
-        <v>1.92976188444716</v>
+        <v>0.412178613353602</v>
       </c>
       <c r="E11" t="n">
-        <v>14.7111604747528</v>
+        <v>14.1272967326464</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00687460469432954</v>
+        <v>0.0345026122542675</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0274984187773182</v>
+        <v>0.13801044901707</v>
       </c>
     </row>
     <row r="12">
@@ -646,19 +646,19 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>13.9232910289</v>
+        <v>12.7628485872</v>
       </c>
       <c r="D12" t="n">
-        <v>7.53259173374716</v>
+        <v>5.9052895275536</v>
       </c>
       <c r="E12" t="n">
-        <v>20.3139903240528</v>
+        <v>19.6204076468464</v>
       </c>
       <c r="F12" t="n">
-        <v>0.00000755813099129199</v>
+        <v>0.0000766259297961813</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0000453487859477519</v>
+        <v>0.000459755578777088</v>
       </c>
     </row>
     <row r="13">
@@ -669,19 +669,19 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>14.3943943767</v>
+        <v>13.5516761597</v>
       </c>
       <c r="D13" t="n">
-        <v>8.00369508154716</v>
+        <v>6.6941171000536</v>
       </c>
       <c r="E13" t="n">
-        <v>20.7850936718528</v>
+        <v>20.4092352193464</v>
       </c>
       <c r="F13" t="n">
-        <v>0.00000531099186973361</v>
+        <v>0.0000347500707169601</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0000453487859477519</v>
+        <v>0.000417000848603521</v>
       </c>
     </row>
   </sheetData>
